--- a/20170227/simulation2/pic/flows picture.xlsx
+++ b/20170227/simulation2/pic/flows picture.xlsx
@@ -240,13 +240,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -257,7 +257,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="123825" y="8820150"/>
+          <a:off x="19050" y="8820150"/>
           <a:ext cx="12077700" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -298,7 +298,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>207818</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -309,7 +309,153 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="3505200"/>
+          <a:off x="38100" y="3539836"/>
+          <a:ext cx="862445" cy="635578"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00.236</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初始化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7867650"/>
+          <a:ext cx="857250" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00.348</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初始化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆形标注 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1495425"/>
           <a:ext cx="1181100" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -344,7 +490,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>00.236</a:t>
+            <a:t>00.382</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -365,161 +511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="椭圆形标注 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="257175" y="7896225"/>
-          <a:ext cx="1181100" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>00.348</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>初始化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="椭圆形标注 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="1514475"/>
-          <a:ext cx="1181100" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>00.382</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>初始化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -528,7 +528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504825" y="5381625"/>
+          <a:off x="190500" y="5324475"/>
           <a:ext cx="1247775" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -583,16 +583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>68355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>316566</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -601,8 +601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="3486150"/>
-          <a:ext cx="1181100" cy="628650"/>
+          <a:off x="504825" y="3430120"/>
+          <a:ext cx="1178859" cy="615203"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -666,16 +666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527237</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>338978</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>150719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -684,8 +684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="7924800"/>
-          <a:ext cx="1181100" cy="809625"/>
+          <a:off x="527237" y="7758953"/>
+          <a:ext cx="1178859" cy="796178"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -766,15 +766,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -783,8 +783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704975" y="4905376"/>
-          <a:ext cx="1247775" cy="1485900"/>
+          <a:off x="1884589" y="4935312"/>
+          <a:ext cx="1236890" cy="1534886"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -868,15 +868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -885,8 +885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895475" y="6572250"/>
-          <a:ext cx="1885950" cy="2276475"/>
+          <a:off x="1714500" y="6176962"/>
+          <a:ext cx="1900238" cy="2214563"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -1037,15 +1037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>481017</xdr:colOff>
+      <xdr:colOff>178458</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381005</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>63875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1054,8 +1054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1862142" y="1"/>
-          <a:ext cx="2281238" cy="1852613"/>
+          <a:off x="1545576" y="44825"/>
+          <a:ext cx="2253223" cy="1868021"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -1205,16 +1205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595595</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:rowOff>117764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76050</xdr:colOff>
+      <xdr:colOff>390375</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>99581</xdr:rowOff>
+      <xdr:rowOff>61481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1223,8 +1223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657965" y="4504234"/>
-          <a:ext cx="1542824" cy="1856999"/>
+          <a:off x="2967320" y="4404014"/>
+          <a:ext cx="1537855" cy="1829667"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -1258,18 +1258,18 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4995</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>timer</a:t>
+            <a:t>4995 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio timer</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1428,16 +1428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>349939</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>68746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>178490</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171037</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1446,8 +1446,175 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3787222" y="6659218"/>
-          <a:ext cx="1890920" cy="2034623"/>
+          <a:off x="3295650" y="6583846"/>
+          <a:ext cx="1409701" cy="2007291"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17226"/>
+            <a:gd name="adj2" fmla="val 62975"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6152</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETX(4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2-&gt;1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6155</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622648</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="椭圆形标注 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4051648" y="0"/>
+          <a:ext cx="1892013" cy="2006537"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -1481,45 +1648,26 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6152</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ETX</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2-&gt;1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6155</a:t>
+            <a:t>6828</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -1527,7 +1675,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> timer</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1538,7 +1686,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>收到</a:t>
+            <a:t>发多播</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -1546,8 +1694,60 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ack</a:t>
-          </a:r>
+            <a:t>dio rank768</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio schedule 531 (sent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>相关信息见下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank 768 dioint 12, 1 nbr(s)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nbr   3   256,   512 =&gt;   768 * (last tx 0 min ago)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1560,26 +1760,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>499027</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>327577</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>13667</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="椭圆形标注 21"/>
+        <xdr:cNvPr id="2" name="椭圆形标注 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4623766" y="6675783"/>
-          <a:ext cx="1890920" cy="2034623"/>
+        <a:xfrm rot="10540805">
+          <a:off x="3943350" y="9001125"/>
+          <a:ext cx="704850" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst/>
@@ -1607,49 +1807,4154 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6348</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>rank 768-&gt;512</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>instance</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> rank 3-&gt;2</a:t>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314432</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>40061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895726" y="9172576"/>
+          <a:ext cx="1219306" cy="640135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595805</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430418</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="椭圆形标注 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024805" y="4581525"/>
+          <a:ext cx="1892013" cy="1661904"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6833</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>添加邻居表</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息数据，复制</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207064</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35615</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="椭圆形标注 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4321864" y="6564796"/>
+          <a:ext cx="1885951" cy="2007291"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7007 dio timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发多播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio           rank512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>schedule 352 tick(sent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank 512 dioint 12, 1 nbr(s)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nbr   3   256,   256 =&gt;   512 * (last tx 0 min ago)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159439</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673790</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆形标注 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4274239" y="2085975"/>
+          <a:ext cx="1885951" cy="1856962"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7012</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>添加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>邻居表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>复制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加入新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dag </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加入父节点，选为最佳</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3192 dio tick(interval) 3738 dao tick</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Incoming DIO (id, ver, rank) = (30,240,512)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416615</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="椭圆形标注 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4531415" y="5695950"/>
+          <a:ext cx="1793186" cy="485362"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36768"/>
+            <a:gd name="adj2" fmla="val 103711"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7012</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546448</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25336</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆形标注 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661248" y="8058149"/>
+          <a:ext cx="1977677" cy="539687"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34644"/>
+            <a:gd name="adj2" fmla="val 94268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7359 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio double 13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5197</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tick</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>interval</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank 512 dioint 13, 1 nbr(s)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108298</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="椭圆形标注 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5594698" y="1609725"/>
+          <a:ext cx="1558577" cy="425387"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18965"/>
+            <a:gd name="adj2" fmla="val 89369"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8903</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="椭圆形标注 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="4333875"/>
+          <a:ext cx="1571625" cy="1456912"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13282"/>
+            <a:gd name="adj2" fmla="val 96193"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8908 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，增加向下路由到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，信息见下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DAO flag: 192, option type: 6, lifetime: 255, prefix length: 128 prefix: aaaa::201:1:1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473764</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="椭圆形标注 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5960164" y="144947"/>
+          <a:ext cx="1278836" cy="1169504"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36306"/>
+            <a:gd name="adj2" fmla="val 125361"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8909</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETX(1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2-&gt;1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8913 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="椭圆形标注 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="895350"/>
+          <a:ext cx="1495425" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39286"/>
+            <a:gd name="adj2" fmla="val 93754"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9382</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank768-&gt;512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> r 3-&gt;2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="椭圆形标注 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="1933575"/>
+          <a:ext cx="1609725" cy="2006537"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26543"/>
+            <a:gd name="adj2" fmla="val 63924"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10204</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> timer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发多播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio rank1024</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio schedule 904 (sent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>相关信息见下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank 1024 dioint 12, 1 nbr(s)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nbr   4   512,   512 =&gt;  1024 * (last tx 0 min ago)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>111062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="椭圆形标注 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572126" y="6505575"/>
+          <a:ext cx="2152650" cy="2006537"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15640"/>
+            <a:gd name="adj2" fmla="val 67247"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10210</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读取复制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息，已在邻居表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加入父节点表，读取现在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="椭圆形标注 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="3590925"/>
+          <a:ext cx="1771650" cy="425387"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5127"/>
+            <a:gd name="adj2" fmla="val 89369"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10750</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="椭圆形标注 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324476" y="8982075"/>
+          <a:ext cx="2743200" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 24521"/>
+            <a:gd name="adj2" fmla="val -60061"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10755 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>增加向下路由到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>foward </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，然后发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，信息见下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DAO flag: 192, option type: 6, lifetime: 255, prefix length: 128 prefix: aaaa::202:2:2:2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="椭圆形标注 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="2116621"/>
+          <a:ext cx="1752600" cy="1512403"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14023"/>
+            <a:gd name="adj2" fmla="val 85684"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10756</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2-&gt;1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10759</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="椭圆形标注 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048376" y="8020049"/>
+          <a:ext cx="2019300" cy="539687"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15356"/>
+            <a:gd name="adj2" fmla="val 97798"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10760</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETX(4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="椭圆形标注 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="4676775"/>
+          <a:ext cx="1571625" cy="1628362"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15706"/>
+            <a:gd name="adj2" fmla="val 58756"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10766 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，增加向下路由过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，信息见下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> DAO flag: 192, option type: 6, lifetime: 255, prefix length: 128 prefix: aaaa::202:2:2:2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="椭圆形标注 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="5505449"/>
+          <a:ext cx="1571625" cy="875887"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11566"/>
+            <a:gd name="adj2" fmla="val 60306"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6151 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，增加向下路由到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，信息见下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DAO flag: 192, option type: 6, lifetime: 255, prefix length: 128 prefix: aaaa::201:1:1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>681320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="椭圆形标注 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7539320" y="2051339"/>
+          <a:ext cx="1537855" cy="1829667"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39414"/>
+            <a:gd name="adj2" fmla="val 66144"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11108 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>double13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7103 tick in future</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank1024 int13 neb1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="椭圆形标注 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="4171950"/>
+          <a:ext cx="1495425" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20815"/>
+            <a:gd name="adj2" fmla="val -59437"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11236</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank1024-&gt;768</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> r 4-&gt;3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>爸爸：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="椭圆形标注 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258051" y="0"/>
+          <a:ext cx="1990724" cy="2007291"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5389"/>
+            <a:gd name="adj2" fmla="val 59178"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11955 dio timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发多播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio           rank512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>schedule 3596 tick(sent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank 512 dioint 13, 1 nbr(s)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nbr   3   256,   256 =&gt;   512 * (last tx 0 min ago)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="椭圆形标注 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7588940" y="5895975"/>
+          <a:ext cx="1793186" cy="485362"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20301"/>
+            <a:gd name="adj2" fmla="val 58575"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11960</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="椭圆形标注 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572376" y="6629400"/>
+          <a:ext cx="1990724" cy="2007291"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5389"/>
+            <a:gd name="adj2" fmla="val 59178"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12556 dio timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发多播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio           rank512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>schedule 2995 tick(sent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank 512 dioint 13, 2 nbr(s)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nbr   3   256,   256 =&gt;   512 * (last tx 0 min ago)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="椭圆形标注 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267701" y="2286000"/>
+          <a:ext cx="1752599" cy="1854137"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37899"/>
+            <a:gd name="adj2" fmla="val 50808"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12561</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读取复制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息，已在邻居表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到相同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 3333tick</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>140390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="椭圆形标注 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7684190" y="5486400"/>
+          <a:ext cx="1793186" cy="485362"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1710"/>
+            <a:gd name="adj2" fmla="val 146885"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12561</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="椭圆形标注 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="4197805"/>
+          <a:ext cx="1247775" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14726"/>
+            <a:gd name="adj2" fmla="val 100321"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12948</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>计时器触发，群发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 256rank 239 (send)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="椭圆形标注 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677276" y="323850"/>
+          <a:ext cx="1752599" cy="1854137"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37899"/>
+            <a:gd name="adj2" fmla="val 50808"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12953</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读取复制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息，已在邻居表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到相同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 3850 tick</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>130112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="椭圆形标注 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191501" y="8905875"/>
+          <a:ext cx="1752599" cy="1854137"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -10182"/>
+            <a:gd name="adj2" fmla="val -55017"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12953</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读取复制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息，已在邻居表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收到相同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2468 tick</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557495</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="椭圆形标注 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8787095" y="5229225"/>
+          <a:ext cx="1537855" cy="994931"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36317"/>
+            <a:gd name="adj2" fmla="val 72073"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13187</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dio timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>double14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12687</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rank256 int14 neb2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9265227" y="138545"/>
+          <a:ext cx="0" cy="11672455"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="文本框 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8732360" y="11511263"/>
+          <a:ext cx="1204280" cy="819949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13.236 sensor2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13.348</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> sensor4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>13.382 sensor1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>重新计算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>rank</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1923,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
